--- a/MainTop/13.10.2025 Таня склад/extra_stock.xlsx
+++ b/MainTop/13.10.2025 Таня склад/extra_stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\13.10.2025 Таня склад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\13.10.2025 Таня склад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14620EF4-D629-48FF-A718-46784F18BC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61276919-0027-4AC4-8C80-9FB138C7EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
